--- a/day_07/pandas/data/sales_2013.xlsx
+++ b/day_07/pandas/data/sales_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="0" windowWidth="21480" windowHeight="13880"/>
+    <workbookView xWindow="3540" yWindow="60" windowWidth="21480" windowHeight="13815"/>
   </bookViews>
   <sheets>
     <sheet name="january_2013" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Customer ID</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>100-0019</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -145,16 +157,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,12 +200,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,35 +485,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -511,7 +532,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2345</v>
       </c>
@@ -528,7 +549,7 @@
         <v>41280</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3456</v>
       </c>
@@ -545,7 +566,7 @@
         <v>41285</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4567</v>
       </c>
@@ -559,10 +580,10 @@
         <v>1257</v>
       </c>
       <c r="E5" s="1">
-        <v>41292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>41298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5678</v>
       </c>
@@ -579,7 +600,7 @@
         <v>41298</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6789</v>
       </c>
@@ -597,7 +618,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -610,18 +633,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9876</v>
       </c>
@@ -655,7 +680,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -672,7 +697,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7654</v>
       </c>
@@ -689,7 +714,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -706,7 +731,7 @@
         <v>41322</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5432</v>
       </c>
@@ -723,7 +748,7 @@
         <v>41326</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -741,6 +766,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -756,16 +782,16 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1234</v>
       </c>
@@ -799,7 +825,7 @@
         <v>41337</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>8765</v>
       </c>
@@ -816,7 +842,7 @@
         <v>41341</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2345</v>
       </c>
@@ -833,7 +859,7 @@
         <v>41350</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6543</v>
       </c>
@@ -850,7 +876,7 @@
         <v>41355</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3456</v>
       </c>
@@ -867,7 +893,7 @@
         <v>41361</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4321</v>
       </c>
@@ -885,6 +911,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <extLst>
